--- a/database/Comprehensive_security.xlsx
+++ b/database/Comprehensive_security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IOC_Api_Test\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63668E8-E676-44B1-8C95-F2152841974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C129E-5274-483A-81D2-10426D616F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5259" yWindow="3531" windowWidth="18031" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,14 +152,6 @@
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备异常告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/ioc/rest/deviceEvent/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -831,38 +823,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>200</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
